--- a/book_details.xlsx
+++ b/book_details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>title</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>job</t>
+  </si>
+  <si>
+    <t>book12</t>
+  </si>
+  <si>
+    <t>anas</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -190,6 +196,17 @@
         <v>1300.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
